--- a/Code/Results/Cases/Case_2_120/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_120/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.046948346859381</v>
+        <v>0.9622023807194182</v>
       </c>
       <c r="C2">
-        <v>0.3324989733188772</v>
+        <v>0.2218852548641905</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07869527564865386</v>
+        <v>0.2247505014119131</v>
       </c>
       <c r="F2">
-        <v>0.9694386052495645</v>
+        <v>1.81982215889326</v>
       </c>
       <c r="G2">
-        <v>0.0007979751385990951</v>
+        <v>0.002443427777046538</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3268258964363504</v>
+        <v>0.7871052767708591</v>
       </c>
       <c r="J2">
-        <v>0.05802797424446027</v>
+        <v>0.04259152284857493</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.303686867630347</v>
+        <v>0.4801065866548555</v>
       </c>
       <c r="M2">
-        <v>0.4248222891456663</v>
+        <v>0.309811780404182</v>
       </c>
       <c r="N2">
-        <v>0.8109525535296385</v>
+        <v>1.438640476772846</v>
       </c>
       <c r="O2">
-        <v>1.602916239112346</v>
+        <v>2.955193148474365</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.780698075449465</v>
+        <v>0.8845360309094588</v>
       </c>
       <c r="C3">
-        <v>0.3033001898460697</v>
+        <v>0.2120804661247178</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0789116631797544</v>
+        <v>0.2257689880360108</v>
       </c>
       <c r="F3">
-        <v>0.9215240342385229</v>
+        <v>1.820648947197</v>
       </c>
       <c r="G3">
-        <v>0.0008018219731995783</v>
+        <v>0.002446034467612376</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3280689718522254</v>
+        <v>0.7938492463015372</v>
       </c>
       <c r="J3">
-        <v>0.05360964180131234</v>
+        <v>0.04107525212612018</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2779083349339402</v>
+        <v>0.4753160814297388</v>
       </c>
       <c r="M3">
-        <v>0.3722885809596974</v>
+        <v>0.2956323305692266</v>
       </c>
       <c r="N3">
-        <v>0.8358555962563017</v>
+        <v>1.450440716834422</v>
       </c>
       <c r="O3">
-        <v>1.534064037068731</v>
+        <v>2.962596872369147</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.61751637133662</v>
+        <v>0.836999538414176</v>
       </c>
       <c r="C4">
-        <v>0.2853347480343587</v>
+        <v>0.2060009276992361</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07911460070713616</v>
+        <v>0.2264504418333395</v>
       </c>
       <c r="F4">
-        <v>0.8937038744103702</v>
+        <v>1.82208039056858</v>
       </c>
       <c r="G4">
-        <v>0.0008042646953139706</v>
+        <v>0.00244772168579236</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3295812414580297</v>
+        <v>0.7984042883416755</v>
       </c>
       <c r="J4">
-        <v>0.05088932611720054</v>
+        <v>0.04013807993391438</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2623099707410717</v>
+        <v>0.4725428870850408</v>
       </c>
       <c r="M4">
-        <v>0.3401725792011661</v>
+        <v>0.2870185274497388</v>
       </c>
       <c r="N4">
-        <v>0.8521460818066799</v>
+        <v>1.458192263878544</v>
       </c>
       <c r="O4">
-        <v>1.495222649321732</v>
+        <v>2.96890091769589</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.551073236144816</v>
+        <v>0.817667351410762</v>
       </c>
       <c r="C5">
-        <v>0.2780020956589766</v>
+        <v>0.2035086408486819</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07921461907693939</v>
+        <v>0.2267422766603424</v>
       </c>
       <c r="F5">
-        <v>0.8827499218343817</v>
+        <v>1.822896201415119</v>
       </c>
       <c r="G5">
-        <v>0.0008052807663759314</v>
+        <v>0.00244843110657457</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.330378175006814</v>
+        <v>0.8003646437935465</v>
       </c>
       <c r="J5">
-        <v>0.04977878095442279</v>
+        <v>0.03975464569393239</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2560080807570273</v>
+        <v>0.4714552622817507</v>
       </c>
       <c r="M5">
-        <v>0.327115746993961</v>
+        <v>0.2835318601884751</v>
       </c>
       <c r="N5">
-        <v>0.8590295561496433</v>
+        <v>1.461478468903472</v>
       </c>
       <c r="O5">
-        <v>1.480212942112132</v>
+        <v>2.971911850174365</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.540043149115462</v>
+        <v>0.8144596713469809</v>
       </c>
       <c r="C6">
-        <v>0.2767837524043841</v>
+        <v>0.2030939060549457</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07923226454524546</v>
+        <v>0.2267915903360134</v>
       </c>
       <c r="F6">
-        <v>0.8809536121046477</v>
+        <v>1.823045713398429</v>
       </c>
       <c r="G6">
-        <v>0.0008054507405568797</v>
+        <v>0.002448550227946594</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3305211995264017</v>
+        <v>0.8006964484878161</v>
       </c>
       <c r="J6">
-        <v>0.04959425185144539</v>
+        <v>0.03969088509064989</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2549648619768874</v>
+        <v>0.4712772336687863</v>
       </c>
       <c r="M6">
-        <v>0.3249493978934055</v>
+        <v>0.2829543310963913</v>
       </c>
       <c r="N6">
-        <v>0.8601871643487797</v>
+        <v>1.462031837907546</v>
       </c>
       <c r="O6">
-        <v>1.477768748526216</v>
+        <v>2.972438504626496</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.6166200998926</v>
+        <v>0.8367386567732922</v>
       </c>
       <c r="C7">
-        <v>0.2852359070671042</v>
+        <v>0.2059673757406699</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07911587985173973</v>
+        <v>0.2264543203396396</v>
       </c>
       <c r="F7">
-        <v>0.8935546196518231</v>
+        <v>1.822090451298855</v>
       </c>
       <c r="G7">
-        <v>0.000804278314357032</v>
+        <v>0.002447731164665538</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3295912675372001</v>
+        <v>0.7984303047532713</v>
       </c>
       <c r="J7">
-        <v>0.05087435715013555</v>
+        <v>0.04013291496422156</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2622247644160751</v>
+        <v>0.4725280467797432</v>
       </c>
       <c r="M7">
-        <v>0.3399963716380228</v>
+        <v>0.2869714093979212</v>
       </c>
       <c r="N7">
-        <v>0.8522379311850656</v>
+        <v>1.458236066856522</v>
       </c>
       <c r="O7">
-        <v>1.495016967182323</v>
+        <v>2.968939734766025</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.955071146031628</v>
+        <v>0.9353924817924906</v>
       </c>
       <c r="C8">
-        <v>0.3224375792744922</v>
+        <v>0.2185169411769863</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07875515679255329</v>
+        <v>0.225090050459837</v>
       </c>
       <c r="F8">
-        <v>0.9525737980991948</v>
+        <v>1.819915612627412</v>
       </c>
       <c r="G8">
-        <v>0.0007992849749046236</v>
+        <v>0.002444308608153875</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3270943213292838</v>
+        <v>0.7893446147464971</v>
       </c>
       <c r="J8">
-        <v>0.05650600027169261</v>
+        <v>0.04207000847975095</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2947487566967197</v>
+        <v>0.4784200173217954</v>
       </c>
       <c r="M8">
-        <v>0.4066768380945192</v>
+        <v>0.3049036861023637</v>
       </c>
       <c r="N8">
-        <v>0.8193276011605803</v>
+        <v>1.442604213729446</v>
       </c>
       <c r="O8">
-        <v>1.578435420252276</v>
+        <v>2.957380978266826</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.622121246753522</v>
+        <v>1.130000184549658</v>
       </c>
       <c r="C9">
-        <v>0.3952052968874398</v>
+        <v>0.2426522564813354</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07861806543347605</v>
+        <v>0.2228585144048125</v>
       </c>
       <c r="F9">
-        <v>1.081920682252431</v>
+        <v>1.822974334918783</v>
       </c>
       <c r="G9">
-        <v>0.0007901177033368974</v>
+        <v>0.002438281967583629</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.328505010949609</v>
+        <v>0.7748152880512791</v>
       </c>
       <c r="J9">
-        <v>0.06749699105560225</v>
+        <v>0.04581875039774985</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3605070535203936</v>
+        <v>0.4913017484657161</v>
       </c>
       <c r="M9">
-        <v>0.5387682575094175</v>
+        <v>0.3407917395345663</v>
       </c>
       <c r="N9">
-        <v>0.7630305293831796</v>
+        <v>1.415961383288817</v>
       </c>
       <c r="O9">
-        <v>1.77141865762303</v>
+        <v>2.948672655134828</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.115762318950033</v>
+        <v>1.27362549407934</v>
       </c>
       <c r="C10">
-        <v>0.4487268317248549</v>
+        <v>0.260092343007301</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07888589521154366</v>
+        <v>0.221487779424379</v>
       </c>
       <c r="F10">
-        <v>1.186604719214699</v>
+        <v>1.829680853674219</v>
       </c>
       <c r="G10">
-        <v>0.0007837396425047625</v>
+        <v>0.002434267659509192</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3339208230396693</v>
+        <v>0.7661465637990617</v>
       </c>
       <c r="J10">
-        <v>0.07555010596952627</v>
+        <v>0.04854158111374574</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4102597516615276</v>
+        <v>0.5015673617268135</v>
       </c>
       <c r="M10">
-        <v>0.6369636426104961</v>
+        <v>0.3675880932563516</v>
       </c>
       <c r="N10">
-        <v>0.7271400164357757</v>
+        <v>1.398825566617639</v>
       </c>
       <c r="O10">
-        <v>1.934304075458328</v>
+        <v>2.950800437349898</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.341471231886544</v>
+        <v>1.339094564690186</v>
       </c>
       <c r="C11">
-        <v>0.4731300260546334</v>
+        <v>0.2679623238522311</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07909265317948133</v>
+        <v>0.22092218560757</v>
       </c>
       <c r="F11">
-        <v>1.236644894430881</v>
+        <v>1.833699180361464</v>
       </c>
       <c r="G11">
-        <v>0.000780910099238358</v>
+        <v>0.002432530351295894</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3374619734601438</v>
+        <v>0.762638913911843</v>
       </c>
       <c r="J11">
-        <v>0.07921131505406009</v>
+        <v>0.04977326637811785</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4332617917167454</v>
+        <v>0.5064098801279755</v>
       </c>
       <c r="M11">
-        <v>0.6819651898085297</v>
+        <v>0.3798694654691417</v>
       </c>
       <c r="N11">
-        <v>0.7121064460026076</v>
+        <v>1.391558242272261</v>
       </c>
       <c r="O11">
-        <v>2.013741812449354</v>
+        <v>2.953623563164058</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.427138497476221</v>
+        <v>1.363903962910058</v>
       </c>
       <c r="C12">
-        <v>0.482382661984758</v>
+        <v>0.2709332532007807</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07918358864554875</v>
+        <v>0.2207163146182172</v>
       </c>
       <c r="F12">
-        <v>1.255970067856111</v>
+        <v>1.835359804742254</v>
       </c>
       <c r="G12">
-        <v>0.0007798484772116047</v>
+        <v>0.002431885183926688</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3389691597732494</v>
+        <v>0.7613733592627199</v>
       </c>
       <c r="J12">
-        <v>0.08059759861619398</v>
+        <v>0.05023865324113785</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4420300220853903</v>
+        <v>0.5082682783025376</v>
       </c>
       <c r="M12">
-        <v>0.6990608830600493</v>
+        <v>0.3845330203646142</v>
       </c>
       <c r="N12">
-        <v>0.706609140539932</v>
+        <v>1.388882111583769</v>
       </c>
       <c r="O12">
-        <v>2.044658228145295</v>
+        <v>2.954959610295617</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.408679274505403</v>
+        <v>1.358560052099449</v>
       </c>
       <c r="C13">
-        <v>0.4803893608099088</v>
+        <v>0.2702938241618824</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07916343476446031</v>
+        <v>0.2207602835952009</v>
       </c>
       <c r="F13">
-        <v>1.251790851762323</v>
+        <v>1.83499598124321</v>
       </c>
       <c r="G13">
-        <v>0.0007800766855181432</v>
+        <v>0.002432023567655491</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3386369791536907</v>
+        <v>0.7616431289942511</v>
       </c>
       <c r="J13">
-        <v>0.08029904077169903</v>
+        <v>0.05013846989922399</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4401389744026147</v>
+        <v>0.5078669459903153</v>
       </c>
       <c r="M13">
-        <v>0.6953764775281002</v>
+        <v>0.383528072985527</v>
       </c>
       <c r="N13">
-        <v>0.7077842251731994</v>
+        <v>1.389455091730028</v>
       </c>
       <c r="O13">
-        <v>2.037961565157246</v>
+        <v>2.954659990721694</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.348515011436859</v>
+        <v>1.341135302859527</v>
       </c>
       <c r="C14">
-        <v>0.4738909900629835</v>
+        <v>0.2682069302754257</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07909987860866075</v>
+        <v>0.2209050821476417</v>
       </c>
       <c r="F14">
-        <v>1.238227083232545</v>
+        <v>1.833833016621483</v>
       </c>
       <c r="G14">
-        <v>0.0007808225640413483</v>
+        <v>0.002432477018576152</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3375825717019012</v>
+        <v>0.7625335387602732</v>
       </c>
       <c r="J14">
-        <v>0.07932536711751936</v>
+        <v>0.0498115747455472</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4339819713767099</v>
+        <v>0.5065622788630435</v>
       </c>
       <c r="M14">
-        <v>0.6833705278080942</v>
+        <v>0.380252882821182</v>
       </c>
       <c r="N14">
-        <v>0.7116502022849005</v>
+        <v>1.391336555604006</v>
       </c>
       <c r="O14">
-        <v>2.016268187127849</v>
+        <v>2.953728128438598</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.311689173397156</v>
+        <v>1.330464399907839</v>
       </c>
       <c r="C15">
-        <v>0.4699121839720419</v>
+        <v>0.2669274379482829</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07906260798612053</v>
+        <v>0.2209948564586544</v>
       </c>
       <c r="F15">
-        <v>1.229968725061482</v>
+        <v>1.833138760793702</v>
       </c>
       <c r="G15">
-        <v>0.0007812807063447084</v>
+        <v>0.002432756424201451</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3369587127888281</v>
+        <v>0.7630871094192386</v>
       </c>
       <c r="J15">
-        <v>0.07872895155582427</v>
+        <v>0.04961120765554483</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4302183105585442</v>
+        <v>0.5057663361812672</v>
       </c>
       <c r="M15">
-        <v>0.6760238572388602</v>
+        <v>0.37824840079859</v>
       </c>
       <c r="N15">
-        <v>0.714043991606566</v>
+        <v>1.392498882516826</v>
       </c>
       <c r="O15">
-        <v>2.003091190415773</v>
+        <v>2.953192112358806</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.101037426535243</v>
+        <v>1.269349490771106</v>
       </c>
       <c r="C16">
-        <v>0.4471334547995411</v>
+        <v>0.2595767315208093</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07887412804304539</v>
+        <v>0.2215259062666171</v>
       </c>
       <c r="F16">
-        <v>1.183385519463471</v>
+        <v>1.829437701984375</v>
       </c>
       <c r="G16">
-        <v>0.000783925966482823</v>
+        <v>0.00243438297908953</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3337120300077245</v>
+        <v>0.7663845705150578</v>
       </c>
       <c r="J16">
-        <v>0.07531080822010949</v>
+        <v>0.04846094554000757</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4087643443374276</v>
+        <v>0.501254349994511</v>
       </c>
       <c r="M16">
-        <v>0.6340299396797349</v>
+        <v>0.3667872935602787</v>
       </c>
       <c r="N16">
-        <v>0.7281493264172312</v>
+        <v>1.399311120050484</v>
       </c>
       <c r="O16">
-        <v>1.929225726514289</v>
+        <v>2.95065328913509</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.972125009611489</v>
+        <v>1.23189054077136</v>
       </c>
       <c r="C17">
-        <v>0.4331762612300452</v>
+        <v>0.2550509388368312</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0787805496204772</v>
+        <v>0.2218665135522322</v>
       </c>
       <c r="F17">
-        <v>1.155447257200279</v>
+        <v>1.827414912589092</v>
       </c>
       <c r="G17">
-        <v>0.0007855668298577012</v>
+        <v>0.002435403525002406</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3320040597102825</v>
+        <v>0.7685191090281833</v>
       </c>
       <c r="J17">
-        <v>0.07321344979572331</v>
+        <v>0.04775349919953698</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3957008966520021</v>
+        <v>0.4985304789030778</v>
       </c>
       <c r="M17">
-        <v>0.6083577726595593</v>
+        <v>0.3597795148803442</v>
       </c>
       <c r="N17">
-        <v>0.7371403636906777</v>
+        <v>1.403625359599332</v>
       </c>
       <c r="O17">
-        <v>1.885325757831822</v>
+        <v>2.949571116180749</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.898084166968943</v>
+        <v>1.210357768429503</v>
       </c>
       <c r="C18">
-        <v>0.4251534863667814</v>
+        <v>0.2524418429730133</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07873469181540216</v>
+        <v>0.2220678790002122</v>
       </c>
       <c r="F18">
-        <v>1.139603787792623</v>
+        <v>1.826342532337989</v>
       </c>
       <c r="G18">
-        <v>0.000786517405480871</v>
+        <v>0.002435998879737189</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3311223777134096</v>
+        <v>0.769787855382706</v>
       </c>
       <c r="J18">
-        <v>0.07200688691608548</v>
+        <v>0.04734594278627924</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3882216030088301</v>
+        <v>0.4969800409174638</v>
       </c>
       <c r="M18">
-        <v>0.5936226291771476</v>
+        <v>0.3557574636274268</v>
       </c>
       <c r="N18">
-        <v>0.7424328809725367</v>
+        <v>1.406156482402594</v>
       </c>
       <c r="O18">
-        <v>1.860574027749124</v>
+        <v>2.94912328501951</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.873032539494204</v>
+        <v>1.203069354919933</v>
       </c>
       <c r="C19">
-        <v>0.4224378718307946</v>
+        <v>0.2515574244676486</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07872052064617385</v>
+        <v>0.2221369959912831</v>
       </c>
       <c r="F19">
-        <v>1.134277426927554</v>
+        <v>1.825995089649552</v>
       </c>
       <c r="G19">
-        <v>0.0007868404348691578</v>
+        <v>0.002436201894996057</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3308408183627733</v>
+        <v>0.7702244741805373</v>
       </c>
       <c r="J19">
-        <v>0.07159832279182154</v>
+        <v>0.04720784003153256</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3856950208832899</v>
+        <v>0.4964578876348469</v>
       </c>
       <c r="M19">
-        <v>0.5886386535886672</v>
+        <v>0.3543971589461492</v>
       </c>
       <c r="N19">
-        <v>0.7442453541552894</v>
+        <v>1.407022012544509</v>
       </c>
       <c r="O19">
-        <v>1.85227714281757</v>
+        <v>2.949001639216078</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.98583675151167</v>
+        <v>1.235876813976461</v>
       </c>
       <c r="C20">
-        <v>0.4346614820822481</v>
+        <v>0.2555333368995321</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07878968371945483</v>
+        <v>0.2218296907311021</v>
       </c>
       <c r="F20">
-        <v>1.158397756745529</v>
+        <v>1.82762081719261</v>
       </c>
       <c r="G20">
-        <v>0.0007853914572525174</v>
+        <v>0.002435294020974643</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3321753748825351</v>
+        <v>0.7682876383727972</v>
       </c>
       <c r="J20">
-        <v>0.07343673846248322</v>
+        <v>0.04782887574441474</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3970879234843636</v>
+        <v>0.4988187580502625</v>
       </c>
       <c r="M20">
-        <v>0.6110873821556169</v>
+        <v>0.3605246131094688</v>
       </c>
       <c r="N20">
-        <v>0.7361706502443752</v>
+        <v>1.403160959504227</v>
       </c>
       <c r="O20">
-        <v>1.889946933506735</v>
+        <v>2.949668242681639</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.366181130538223</v>
+        <v>1.346252905924928</v>
       </c>
       <c r="C21">
-        <v>0.4757993716983719</v>
+        <v>0.2688201538755379</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07911819998205161</v>
+        <v>0.2208623260688611</v>
       </c>
       <c r="F21">
-        <v>1.24220065083972</v>
+        <v>1.834170837111159</v>
       </c>
       <c r="G21">
-        <v>0.0007806032176196847</v>
+        <v>0.002432343484488726</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3378876715284918</v>
+        <v>0.7622703013349579</v>
       </c>
       <c r="J21">
-        <v>0.07961136090780485</v>
+        <v>0.04990761982715952</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4357888226882665</v>
+        <v>0.5069448239234617</v>
       </c>
       <c r="M21">
-        <v>0.6868954277841368</v>
+        <v>0.3812145388024533</v>
       </c>
       <c r="N21">
-        <v>0.710509283276636</v>
+        <v>1.390781866009419</v>
       </c>
       <c r="O21">
-        <v>2.022616836007643</v>
+        <v>2.953994591208954</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.615917880537893</v>
+        <v>1.418492445733875</v>
       </c>
       <c r="C22">
-        <v>0.502755335729546</v>
+        <v>0.2774498196122295</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07940680155740409</v>
+        <v>0.2202785048707518</v>
       </c>
       <c r="F22">
-        <v>1.299177044662557</v>
+        <v>1.839261612666917</v>
       </c>
       <c r="G22">
-        <v>0.0007775310846159155</v>
+        <v>0.002430489216119866</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3425957009634288</v>
+        <v>0.7587032048056841</v>
       </c>
       <c r="J22">
-        <v>0.08364612683047312</v>
+        <v>0.0512602085849494</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4614217765330011</v>
+        <v>0.5123992223483071</v>
       </c>
       <c r="M22">
-        <v>0.7367620746986532</v>
+        <v>0.3948114525845696</v>
       </c>
       <c r="N22">
-        <v>0.6948830183791159</v>
+        <v>1.383133485835884</v>
       </c>
       <c r="O22">
-        <v>2.114226340115266</v>
+        <v>2.95837843542688</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.482511702994771</v>
+        <v>1.379927961389456</v>
       </c>
       <c r="C23">
-        <v>0.4883607442862967</v>
+        <v>0.2728489871946636</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0792458594394585</v>
+        <v>0.220585681001511</v>
       </c>
       <c r="F23">
-        <v>1.26855596644144</v>
+        <v>1.836470509698216</v>
       </c>
       <c r="G23">
-        <v>0.0007791656638422817</v>
+        <v>0.002431472115188512</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3399898176605092</v>
+        <v>0.7605735643915423</v>
       </c>
       <c r="J23">
-        <v>0.08149269907287504</v>
+        <v>0.05053886361051241</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4477082492884961</v>
+        <v>0.5094750336066625</v>
       </c>
       <c r="M23">
-        <v>0.7101154738847555</v>
+        <v>0.3875477748791667</v>
       </c>
       <c r="N23">
-        <v>0.7031149448390792</v>
+        <v>1.387175138057245</v>
       </c>
       <c r="O23">
-        <v>2.0648606480122</v>
+        <v>2.955896220134804</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.97963744910561</v>
+        <v>1.234074610786138</v>
       </c>
       <c r="C24">
-        <v>0.4339900096393023</v>
+        <v>0.2553152670223255</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07878552948891127</v>
+        <v>0.2218463210523165</v>
       </c>
       <c r="F24">
-        <v>1.157063157091784</v>
+        <v>1.827527445658575</v>
       </c>
       <c r="G24">
-        <v>0.0007854707206943395</v>
+        <v>0.002435343500846731</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3320976118726726</v>
+        <v>0.7683921567655148</v>
       </c>
       <c r="J24">
-        <v>0.07333579204794205</v>
+        <v>0.04779480061066721</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3964607522752033</v>
+        <v>0.4986883785926892</v>
       </c>
       <c r="M24">
-        <v>0.6098532510627308</v>
+        <v>0.3601877329520349</v>
       </c>
       <c r="N24">
-        <v>0.7366086738940041</v>
+        <v>1.403370756514178</v>
       </c>
       <c r="O24">
-        <v>1.887856188274469</v>
+        <v>2.949623788793446</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.441157648870558</v>
+        <v>1.077236219352073</v>
       </c>
       <c r="C25">
-        <v>0.37552256981715</v>
+        <v>0.2361741023894552</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07859200964918145</v>
+        <v>0.2234148767391062</v>
       </c>
       <c r="F25">
-        <v>1.045336784064204</v>
+        <v>1.821363383362566</v>
       </c>
       <c r="G25">
-        <v>0.0007925331881774578</v>
+        <v>0.002439839429095472</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3273949521339112</v>
+        <v>0.7783937102772818</v>
       </c>
       <c r="J25">
-        <v>0.06452826022198721</v>
+        <v>0.04481005618989187</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.342482577119938</v>
+        <v>0.4876755913296051</v>
       </c>
       <c r="M25">
-        <v>0.5028581445951588</v>
+        <v>0.3310068475526577</v>
       </c>
       <c r="N25">
-        <v>0.7773337296883867</v>
+        <v>1.422740254072288</v>
       </c>
       <c r="O25">
-        <v>1.715748185090433</v>
+        <v>2.949532450298562</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_120/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_120/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9622023807194182</v>
+        <v>2.04694834685921</v>
       </c>
       <c r="C2">
-        <v>0.2218852548641905</v>
+        <v>0.3324989733186072</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2247505014119131</v>
+        <v>0.07869527564865741</v>
       </c>
       <c r="F2">
-        <v>1.81982215889326</v>
+        <v>0.9694386052495645</v>
       </c>
       <c r="G2">
-        <v>0.002443427777046538</v>
+        <v>0.0007979751385410856</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7871052767708591</v>
+        <v>0.3268258964363611</v>
       </c>
       <c r="J2">
-        <v>0.04259152284857493</v>
+        <v>0.05802797424442829</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4801065866548555</v>
+        <v>0.3036868676304039</v>
       </c>
       <c r="M2">
-        <v>0.309811780404182</v>
+        <v>0.4248222891456663</v>
       </c>
       <c r="N2">
-        <v>1.438640476772846</v>
+        <v>0.8109525535295674</v>
       </c>
       <c r="O2">
-        <v>2.955193148474365</v>
+        <v>1.602916239112318</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8845360309094588</v>
+        <v>1.780698075449578</v>
       </c>
       <c r="C3">
-        <v>0.2120804661247178</v>
+        <v>0.3033001898463681</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2257689880360108</v>
+        <v>0.07891166317976506</v>
       </c>
       <c r="F3">
-        <v>1.820648947197</v>
+        <v>0.92152403423853</v>
       </c>
       <c r="G3">
-        <v>0.002446034467612376</v>
+        <v>0.0008018219731552431</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7938492463015372</v>
+        <v>0.3280689718522325</v>
       </c>
       <c r="J3">
-        <v>0.04107525212612018</v>
+        <v>0.05360964180126615</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4753160814297388</v>
+        <v>0.277908334933997</v>
       </c>
       <c r="M3">
-        <v>0.2956323305692266</v>
+        <v>0.3722885809597045</v>
       </c>
       <c r="N3">
-        <v>1.450440716834422</v>
+        <v>0.8358555962563585</v>
       </c>
       <c r="O3">
-        <v>2.962596872369147</v>
+        <v>1.534064037068731</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.836999538414176</v>
+        <v>1.617516371336592</v>
       </c>
       <c r="C4">
-        <v>0.2060009276992361</v>
+        <v>0.2853347480344155</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2264504418333395</v>
+        <v>0.07911460070711129</v>
       </c>
       <c r="F4">
-        <v>1.82208039056858</v>
+        <v>0.8937038744103774</v>
       </c>
       <c r="G4">
-        <v>0.00244772168579236</v>
+        <v>0.0008042646953137124</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7984042883416755</v>
+        <v>0.3295812414580155</v>
       </c>
       <c r="J4">
-        <v>0.04013807993391438</v>
+        <v>0.05088932611725738</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4725428870850408</v>
+        <v>0.2623099707411995</v>
       </c>
       <c r="M4">
-        <v>0.2870185274497388</v>
+        <v>0.3401725792011732</v>
       </c>
       <c r="N4">
-        <v>1.458192263878544</v>
+        <v>0.8521460818066657</v>
       </c>
       <c r="O4">
-        <v>2.96890091769589</v>
+        <v>1.495222649321789</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.817667351410762</v>
+        <v>1.551073236144759</v>
       </c>
       <c r="C5">
-        <v>0.2035086408486819</v>
+        <v>0.2780020956594456</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2267422766603424</v>
+        <v>0.07921461907695004</v>
       </c>
       <c r="F5">
-        <v>1.822896201415119</v>
+        <v>0.8827499218343817</v>
       </c>
       <c r="G5">
-        <v>0.00244843110657457</v>
+        <v>0.0008052807663748514</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8003646437935465</v>
+        <v>0.330378175006814</v>
       </c>
       <c r="J5">
-        <v>0.03975464569393239</v>
+        <v>0.04977878095438726</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4714552622817507</v>
+        <v>0.256008080757141</v>
       </c>
       <c r="M5">
-        <v>0.2835318601884751</v>
+        <v>0.327115746993961</v>
       </c>
       <c r="N5">
-        <v>1.461478468903472</v>
+        <v>0.8590295561497001</v>
       </c>
       <c r="O5">
-        <v>2.971911850174365</v>
+        <v>1.480212942112132</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8144596713469809</v>
+        <v>1.540043149115348</v>
       </c>
       <c r="C6">
-        <v>0.2030939060549457</v>
+        <v>0.2767837524041283</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2267915903360134</v>
+        <v>0.07923226454525789</v>
       </c>
       <c r="F6">
-        <v>1.823045713398429</v>
+        <v>0.8809536121046619</v>
       </c>
       <c r="G6">
-        <v>0.002448550227946594</v>
+        <v>0.000805450740594682</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8006964484878161</v>
+        <v>0.3305211995264052</v>
       </c>
       <c r="J6">
-        <v>0.03969088509064989</v>
+        <v>0.04959425185132815</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4712772336687863</v>
+        <v>0.2549648619768163</v>
       </c>
       <c r="M6">
-        <v>0.2829543310963913</v>
+        <v>0.3249493978934268</v>
       </c>
       <c r="N6">
-        <v>1.462031837907546</v>
+        <v>0.8601871643487797</v>
       </c>
       <c r="O6">
-        <v>2.972438504626496</v>
+        <v>1.477768748526245</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8367386567732922</v>
+        <v>1.616620099892657</v>
       </c>
       <c r="C7">
-        <v>0.2059673757406699</v>
+        <v>0.28523590706655</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2264543203396396</v>
+        <v>0.07911587985172197</v>
       </c>
       <c r="F7">
-        <v>1.822090451298855</v>
+        <v>0.8935546196518231</v>
       </c>
       <c r="G7">
-        <v>0.002447731164665538</v>
+        <v>0.0008042783143566434</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7984303047532713</v>
+        <v>0.3295912675372108</v>
       </c>
       <c r="J7">
-        <v>0.04013291496422156</v>
+        <v>0.0508743571501391</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4725280467797432</v>
+        <v>0.2622247644160751</v>
       </c>
       <c r="M7">
-        <v>0.2869714093979212</v>
+        <v>0.3399963716380228</v>
       </c>
       <c r="N7">
-        <v>1.458236066856522</v>
+        <v>0.8522379311850656</v>
       </c>
       <c r="O7">
-        <v>2.968939734766025</v>
+        <v>1.495016967182323</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9353924817924906</v>
+        <v>1.955071146031571</v>
       </c>
       <c r="C8">
-        <v>0.2185169411769863</v>
+        <v>0.3224375792747907</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.225090050459837</v>
+        <v>0.07875515679255329</v>
       </c>
       <c r="F8">
-        <v>1.819915612627412</v>
+        <v>0.9525737980991948</v>
       </c>
       <c r="G8">
-        <v>0.002444308608153875</v>
+        <v>0.0007992849749047631</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7893446147464971</v>
+        <v>0.3270943213292767</v>
       </c>
       <c r="J8">
-        <v>0.04207000847975095</v>
+        <v>0.05650600027160024</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4784200173217954</v>
+        <v>0.2947487566967055</v>
       </c>
       <c r="M8">
-        <v>0.3049036861023637</v>
+        <v>0.4066768380945192</v>
       </c>
       <c r="N8">
-        <v>1.442604213729446</v>
+        <v>0.819327601160623</v>
       </c>
       <c r="O8">
-        <v>2.957380978266826</v>
+        <v>1.57843542025239</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.130000184549658</v>
+        <v>2.622121246753466</v>
       </c>
       <c r="C9">
-        <v>0.2426522564813354</v>
+        <v>0.3952052968867861</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2228585144048125</v>
+        <v>0.07861806543348671</v>
       </c>
       <c r="F9">
-        <v>1.822974334918783</v>
+        <v>1.081920682252431</v>
       </c>
       <c r="G9">
-        <v>0.002438281967583629</v>
+        <v>0.0007901177034145163</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7748152880512791</v>
+        <v>0.3285050109495984</v>
       </c>
       <c r="J9">
-        <v>0.04581875039774985</v>
+        <v>0.06749699105560936</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4913017484657161</v>
+        <v>0.360507053520422</v>
       </c>
       <c r="M9">
-        <v>0.3407917395345663</v>
+        <v>0.5387682575094104</v>
       </c>
       <c r="N9">
-        <v>1.415961383288817</v>
+        <v>0.7630305293831512</v>
       </c>
       <c r="O9">
-        <v>2.948672655134828</v>
+        <v>1.771418657622974</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.27362549407934</v>
+        <v>3.115762318950033</v>
       </c>
       <c r="C10">
-        <v>0.260092343007301</v>
+        <v>0.4487268317249686</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.221487779424379</v>
+        <v>0.07888589521152944</v>
       </c>
       <c r="F10">
-        <v>1.829680853674219</v>
+        <v>1.186604719214699</v>
       </c>
       <c r="G10">
-        <v>0.002434267659509192</v>
+        <v>0.0007837396424782974</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7661465637990617</v>
+        <v>0.3339208230397048</v>
       </c>
       <c r="J10">
-        <v>0.04854158111374574</v>
+        <v>0.0755501059694268</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5015673617268135</v>
+        <v>0.4102597516615134</v>
       </c>
       <c r="M10">
-        <v>0.3675880932563516</v>
+        <v>0.6369636426105032</v>
       </c>
       <c r="N10">
-        <v>1.398825566617639</v>
+        <v>0.7271400164357829</v>
       </c>
       <c r="O10">
-        <v>2.950800437349898</v>
+        <v>1.934304075458471</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.339094564690186</v>
+        <v>3.341471231886715</v>
       </c>
       <c r="C11">
-        <v>0.2679623238522311</v>
+        <v>0.4731300260545197</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.22092218560757</v>
+        <v>0.07909265317949554</v>
       </c>
       <c r="F11">
-        <v>1.833699180361464</v>
+        <v>1.236644894430881</v>
       </c>
       <c r="G11">
-        <v>0.002432530351295894</v>
+        <v>0.0007809100992371861</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.762638913911843</v>
+        <v>0.3374619734601367</v>
       </c>
       <c r="J11">
-        <v>0.04977326637811785</v>
+        <v>0.07921131505408852</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5064098801279755</v>
+        <v>0.4332617917167738</v>
       </c>
       <c r="M11">
-        <v>0.3798694654691417</v>
+        <v>0.6819651898085226</v>
       </c>
       <c r="N11">
-        <v>1.391558242272261</v>
+        <v>0.7121064460025863</v>
       </c>
       <c r="O11">
-        <v>2.953623563164058</v>
+        <v>2.013741812449297</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.363903962910058</v>
+        <v>3.427138497476278</v>
       </c>
       <c r="C12">
-        <v>0.2709332532007807</v>
+        <v>0.4823826619848148</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2207163146182172</v>
+        <v>0.07918358864554165</v>
       </c>
       <c r="F12">
-        <v>1.835359804742254</v>
+        <v>1.255970067856126</v>
       </c>
       <c r="G12">
-        <v>0.002431885183926688</v>
+        <v>0.000779848477210682</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7613733592627199</v>
+        <v>0.3389691597732352</v>
       </c>
       <c r="J12">
-        <v>0.05023865324113785</v>
+        <v>0.08059759861614424</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5082682783025376</v>
+        <v>0.4420300220853335</v>
       </c>
       <c r="M12">
-        <v>0.3845330203646142</v>
+        <v>0.6990608830600351</v>
       </c>
       <c r="N12">
-        <v>1.388882111583769</v>
+        <v>0.706609140539868</v>
       </c>
       <c r="O12">
-        <v>2.954959610295617</v>
+        <v>2.04465822814538</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.358560052099449</v>
+        <v>3.408679274505346</v>
       </c>
       <c r="C13">
-        <v>0.2702938241618824</v>
+        <v>0.4803893608096814</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2207602835952009</v>
+        <v>0.07916343476446386</v>
       </c>
       <c r="F13">
-        <v>1.83499598124321</v>
+        <v>1.251790851762323</v>
       </c>
       <c r="G13">
-        <v>0.002432023567655491</v>
+        <v>0.0007800766856308431</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7616431289942511</v>
+        <v>0.3386369791536978</v>
       </c>
       <c r="J13">
-        <v>0.05013846989922399</v>
+        <v>0.08029904077165639</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5078669459903153</v>
+        <v>0.4401389744025579</v>
       </c>
       <c r="M13">
-        <v>0.383528072985527</v>
+        <v>0.6953764775281073</v>
       </c>
       <c r="N13">
-        <v>1.389455091730028</v>
+        <v>0.7077842251731354</v>
       </c>
       <c r="O13">
-        <v>2.954659990721694</v>
+        <v>2.037961565157275</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.341135302859527</v>
+        <v>3.348515011436973</v>
       </c>
       <c r="C14">
-        <v>0.2682069302754257</v>
+        <v>0.473890990063353</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2209050821476417</v>
+        <v>0.07909987860867851</v>
       </c>
       <c r="F14">
-        <v>1.833833016621483</v>
+        <v>1.238227083232559</v>
       </c>
       <c r="G14">
-        <v>0.002432477018576152</v>
+        <v>0.0007808225640414945</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7625335387602732</v>
+        <v>0.3375825717019225</v>
       </c>
       <c r="J14">
-        <v>0.0498115747455472</v>
+        <v>0.07932536711757621</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5065622788630435</v>
+        <v>0.433981971376781</v>
       </c>
       <c r="M14">
-        <v>0.380252882821182</v>
+        <v>0.6833705278081013</v>
       </c>
       <c r="N14">
-        <v>1.391336555604006</v>
+        <v>0.7116502022849005</v>
       </c>
       <c r="O14">
-        <v>2.953728128438598</v>
+        <v>2.016268187127793</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.330464399907839</v>
+        <v>3.311689173397042</v>
       </c>
       <c r="C15">
-        <v>0.2669274379482829</v>
+        <v>0.4699121839717861</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2209948564586544</v>
+        <v>0.07906260798610631</v>
       </c>
       <c r="F15">
-        <v>1.833138760793702</v>
+        <v>1.229968725061482</v>
       </c>
       <c r="G15">
-        <v>0.002432756424201451</v>
+        <v>0.0007812807063729025</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7630871094192386</v>
+        <v>0.3369587127888281</v>
       </c>
       <c r="J15">
-        <v>0.04961120765554483</v>
+        <v>0.07872895155582427</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5057663361812672</v>
+        <v>0.4302183105584731</v>
       </c>
       <c r="M15">
-        <v>0.37824840079859</v>
+        <v>0.6760238572388459</v>
       </c>
       <c r="N15">
-        <v>1.392498882516826</v>
+        <v>0.714043991606566</v>
       </c>
       <c r="O15">
-        <v>2.953192112358806</v>
+        <v>2.003091190415745</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.269349490771106</v>
+        <v>3.101037426535186</v>
       </c>
       <c r="C16">
-        <v>0.2595767315208093</v>
+        <v>0.4471334547993706</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2215259062666171</v>
+        <v>0.07887412804303295</v>
       </c>
       <c r="F16">
-        <v>1.829437701984375</v>
+        <v>1.183385519463485</v>
       </c>
       <c r="G16">
-        <v>0.00243438297908953</v>
+        <v>0.0007839259664822858</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7663845705150578</v>
+        <v>0.3337120300077245</v>
       </c>
       <c r="J16">
-        <v>0.04846094554000757</v>
+        <v>0.07531080822013081</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.501254349994511</v>
+        <v>0.4087643443374844</v>
       </c>
       <c r="M16">
-        <v>0.3667872935602787</v>
+        <v>0.634029939679742</v>
       </c>
       <c r="N16">
-        <v>1.399311120050484</v>
+        <v>0.7281493264172241</v>
       </c>
       <c r="O16">
-        <v>2.95065328913509</v>
+        <v>1.929225726514261</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.23189054077136</v>
+        <v>2.972125009611773</v>
       </c>
       <c r="C17">
-        <v>0.2550509388368312</v>
+        <v>0.433176261230642</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2218665135522322</v>
+        <v>0.07878054962049319</v>
       </c>
       <c r="F17">
-        <v>1.827414912589092</v>
+        <v>1.155447257200308</v>
       </c>
       <c r="G17">
-        <v>0.002435403525002406</v>
+        <v>0.000785566829885987</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7685191090281833</v>
+        <v>0.332004059710286</v>
       </c>
       <c r="J17">
-        <v>0.04775349919953698</v>
+        <v>0.07321344979565225</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4985304789030778</v>
+        <v>0.3957008966519453</v>
       </c>
       <c r="M17">
-        <v>0.3597795148803442</v>
+        <v>0.6083577726595593</v>
       </c>
       <c r="N17">
-        <v>1.403625359599332</v>
+        <v>0.7371403636906777</v>
       </c>
       <c r="O17">
-        <v>2.949571116180749</v>
+        <v>1.885325757831879</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.210357768429503</v>
+        <v>2.898084166969056</v>
       </c>
       <c r="C18">
-        <v>0.2524418429730133</v>
+        <v>0.425153486366554</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2220678790002122</v>
+        <v>0.07873469181537729</v>
       </c>
       <c r="F18">
-        <v>1.826342532337989</v>
+        <v>1.139603787792623</v>
       </c>
       <c r="G18">
-        <v>0.002435998879737189</v>
+        <v>0.0007865174055366449</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.769787855382706</v>
+        <v>0.3311223777134273</v>
       </c>
       <c r="J18">
-        <v>0.04734594278627924</v>
+        <v>0.07200688691619916</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4969800409174638</v>
+        <v>0.3882216030088301</v>
       </c>
       <c r="M18">
-        <v>0.3557574636274268</v>
+        <v>0.5936226291771476</v>
       </c>
       <c r="N18">
-        <v>1.406156482402594</v>
+        <v>0.7424328809724869</v>
       </c>
       <c r="O18">
-        <v>2.94912328501951</v>
+        <v>1.860574027749095</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.203069354919933</v>
+        <v>2.873032539494261</v>
       </c>
       <c r="C19">
-        <v>0.2515574244676486</v>
+        <v>0.4224378718307946</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2221369959912831</v>
+        <v>0.07872052064617563</v>
       </c>
       <c r="F19">
-        <v>1.825995089649552</v>
+        <v>1.134277426927596</v>
       </c>
       <c r="G19">
-        <v>0.002436201894996057</v>
+        <v>0.0007868404348688391</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7702244741805373</v>
+        <v>0.3308408183627733</v>
       </c>
       <c r="J19">
-        <v>0.04720784003153256</v>
+        <v>0.0715983227918997</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4964578876348469</v>
+        <v>0.3856950208832615</v>
       </c>
       <c r="M19">
-        <v>0.3543971589461492</v>
+        <v>0.5886386535886672</v>
       </c>
       <c r="N19">
-        <v>1.407022012544509</v>
+        <v>0.7442453541552965</v>
       </c>
       <c r="O19">
-        <v>2.949001639216078</v>
+        <v>1.852277142817542</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.235876813976461</v>
+        <v>2.985836751511783</v>
       </c>
       <c r="C20">
-        <v>0.2555333368995321</v>
+        <v>0.4346614820818786</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2218296907311021</v>
+        <v>0.07878968371945128</v>
       </c>
       <c r="F20">
-        <v>1.82762081719261</v>
+        <v>1.158397756745529</v>
       </c>
       <c r="G20">
-        <v>0.002435294020974643</v>
+        <v>0.0007853914572781149</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7682876383727972</v>
+        <v>0.3321753748825245</v>
       </c>
       <c r="J20">
-        <v>0.04782887574441474</v>
+        <v>0.07343673846247611</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4988187580502625</v>
+        <v>0.3970879234844347</v>
       </c>
       <c r="M20">
-        <v>0.3605246131094688</v>
+        <v>0.6110873821556169</v>
       </c>
       <c r="N20">
-        <v>1.403160959504227</v>
+        <v>0.7361706502443539</v>
       </c>
       <c r="O20">
-        <v>2.949668242681639</v>
+        <v>1.889946933506764</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.346252905924928</v>
+        <v>3.366181130537996</v>
       </c>
       <c r="C21">
-        <v>0.2688201538755379</v>
+        <v>0.4757993716978888</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2208623260688611</v>
+        <v>0.07911819998206582</v>
       </c>
       <c r="F21">
-        <v>1.834170837111159</v>
+        <v>1.24220065083972</v>
       </c>
       <c r="G21">
-        <v>0.002432343484488726</v>
+        <v>0.0007806032176198019</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7622703013349579</v>
+        <v>0.3378876715284775</v>
       </c>
       <c r="J21">
-        <v>0.04990761982715952</v>
+        <v>0.07961136090790433</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5069448239234617</v>
+        <v>0.4357888226883091</v>
       </c>
       <c r="M21">
-        <v>0.3812145388024533</v>
+        <v>0.6868954277841439</v>
       </c>
       <c r="N21">
-        <v>1.390781866009419</v>
+        <v>0.7105092832765862</v>
       </c>
       <c r="O21">
-        <v>2.953994591208954</v>
+        <v>2.022616836007586</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.418492445733875</v>
+        <v>3.61591788053795</v>
       </c>
       <c r="C22">
-        <v>0.2774498196122295</v>
+        <v>0.5027553357297734</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2202785048707518</v>
+        <v>0.07940680155740765</v>
       </c>
       <c r="F22">
-        <v>1.839261612666917</v>
+        <v>1.299177044662557</v>
       </c>
       <c r="G22">
-        <v>0.002430489216119866</v>
+        <v>0.0007775310845865076</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7587032048056841</v>
+        <v>0.3425957009634288</v>
       </c>
       <c r="J22">
-        <v>0.0512602085849494</v>
+        <v>0.08364612683041628</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5123992223483071</v>
+        <v>0.4614217765330295</v>
       </c>
       <c r="M22">
-        <v>0.3948114525845696</v>
+        <v>0.7367620746986532</v>
       </c>
       <c r="N22">
-        <v>1.383133485835884</v>
+        <v>0.6948830183791159</v>
       </c>
       <c r="O22">
-        <v>2.95837843542688</v>
+        <v>2.114226340115323</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.379927961389456</v>
+        <v>3.482511702994714</v>
       </c>
       <c r="C23">
-        <v>0.2728489871946636</v>
+        <v>0.4883607442864957</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.220585681001511</v>
+        <v>0.07924585943944251</v>
       </c>
       <c r="F23">
-        <v>1.836470509698216</v>
+        <v>1.268555966441468</v>
       </c>
       <c r="G23">
-        <v>0.002431472115188512</v>
+        <v>0.0007791656638693144</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7605735643915423</v>
+        <v>0.3399898176605163</v>
       </c>
       <c r="J23">
-        <v>0.05053886361051241</v>
+        <v>0.08149269907285372</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5094750336066625</v>
+        <v>0.4477082492884392</v>
       </c>
       <c r="M23">
-        <v>0.3875477748791667</v>
+        <v>0.7101154738847555</v>
       </c>
       <c r="N23">
-        <v>1.387175138057245</v>
+        <v>0.7031149448390011</v>
       </c>
       <c r="O23">
-        <v>2.955896220134804</v>
+        <v>2.064860648012228</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.234074610786138</v>
+        <v>2.97963744910561</v>
       </c>
       <c r="C24">
-        <v>0.2553152670223255</v>
+        <v>0.4339900096393023</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2218463210523165</v>
+        <v>0.07878552948890949</v>
       </c>
       <c r="F24">
-        <v>1.827527445658575</v>
+        <v>1.15706315709177</v>
       </c>
       <c r="G24">
-        <v>0.002435343500846731</v>
+        <v>0.0007854707207515105</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7683921567655148</v>
+        <v>0.332097611872662</v>
       </c>
       <c r="J24">
-        <v>0.04779480061066721</v>
+        <v>0.07333579204789942</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4986883785926892</v>
+        <v>0.3964607522751606</v>
       </c>
       <c r="M24">
-        <v>0.3601877329520349</v>
+        <v>0.6098532510627592</v>
       </c>
       <c r="N24">
-        <v>1.403370756514178</v>
+        <v>0.7366086738940467</v>
       </c>
       <c r="O24">
-        <v>2.949623788793446</v>
+        <v>1.887856188274412</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.077236219352073</v>
+        <v>2.441157648870671</v>
       </c>
       <c r="C25">
-        <v>0.2361741023894552</v>
+        <v>0.3755225698169511</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2234148767391062</v>
+        <v>0.07859200964916724</v>
       </c>
       <c r="F25">
-        <v>1.821363383362566</v>
+        <v>1.045336784064204</v>
       </c>
       <c r="G25">
-        <v>0.002439839429095472</v>
+        <v>0.0007925331882014549</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7783937102772818</v>
+        <v>0.3273949521339361</v>
       </c>
       <c r="J25">
-        <v>0.04481005618989187</v>
+        <v>0.06452826022206182</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4876755913296051</v>
+        <v>0.3424825771200091</v>
       </c>
       <c r="M25">
-        <v>0.3310068475526577</v>
+        <v>0.502858144595173</v>
       </c>
       <c r="N25">
-        <v>1.422740254072288</v>
+        <v>0.7773337296884506</v>
       </c>
       <c r="O25">
-        <v>2.949532450298562</v>
+        <v>1.715748185090462</v>
       </c>
     </row>
   </sheetData>
